--- a/biology/Écologie/Forêts_claires_succulentes_de_Madagascar/Forêts_claires_succulentes_de_Madagascar.xlsx
+++ b/biology/Écologie/Forêts_claires_succulentes_de_Madagascar/Forêts_claires_succulentes_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_claires_succulentes_de_Madagascar</t>
+          <t>Forêts_claires_succulentes_de_Madagascar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts claires succulentes de Madagascar désignent une écorégion terrestre de l'écozone afrotropicale appartenant au biome terrestre des déserts et brousses xériques et qui forme une zone de transition entre les fourrés épineux du Sud et les forêts sèches caducifoliées de l'Ouest de l'île de Madagascar. Cette zone présente un climat tropical sec avec une saison sèche bien différenciée entre mai et octobre.
 La végétation est proche de celle des forêts sèches caducifoliées mais se caractérise par un nombre plus important d'espèces xérophiles. La canopée, qui peut atteindre 15 mètres de haut, se distingue par deux espèces endémiques de baobabs: Adansonia za et Adansonia grandidieri. Elle comprend également de nombreuses euphorbiacées et fabacées, dont plusieurs espèces endémiques de Pachypodium.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_claires_succulentes_de_Madagascar</t>
+          <t>Forêts_claires_succulentes_de_Madagascar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Faune endémique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écorégion compte un certain nombre d'espèces animales strictement endémiques, parmi lesquelles deux grenouilles, Heterixalus luteostriatus et Dyscophus insularis, six lézards, Oplurus cuvieri, Chalarodon madagascariensis, Phelsuma standingi, Furcifer tuzetae, Paroedura vahiny et Paroedura guibeae, deux oiseaux, le Bulbul d'Appert (Phyllastrephus apperti) et la Mésite variée (Mesitornis variegatus), et cinq mammifères, la Mangouste à dix raies (Mungotictis decemlineata decemlineata), le Rat sauteur géant (Hypogeomys antimena), le Microcèbe de Madame Berthe (Microcebus berthae), le Lémurien à fourche occidental (Phaner pallescens) et le Lépilémur à queue rousse (Lepilemur ruficaudatus).
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_claires_succulentes_de_Madagascar</t>
+          <t>Forêts_claires_succulentes_de_Madagascar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Flore endémique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des espèces forestières endémiques de l'éco-région[1],[2],[3],[4],[5],[6],[7]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des espèces forestières endémiques de l'éco-région:
 La forêt dense sèche de l’ouest se distingue des autres forêts existant à Madagascar par des formations à feuilles caduques. On remarque l'absence d’un certain nombre de taxons caractéristiques de la région orientale. Au niveau familial, on note par exemple, l'absence des Myristicaceae, Iridaceae, Phytolaccaceae, Ericaceae, Myricaceae, Apiaceae, Araliaceae, et la rareté des Ptéridophytes. On rencontre cependant des espèces caractéristiques des forêts denses humides comme Pandanus sp appartenant à la famille des Pandanaceae. 
 La famille des Euphorbiaceae, Apocynaceae, Fabaceae, Malvaceae, Tiliaceae et Asclepiadaceae sont très abondantes.
 Acanthaceae
